--- a/Data/Self_generated/Images/SVC_ValidationCurve_gamma.xlsx
+++ b/Data/Self_generated/Images/SVC_ValidationCurve_gamma.xlsx
@@ -471,10 +471,10 @@
         <v>0.76</v>
       </c>
       <c r="D2" t="n">
-        <v>4.46</v>
+        <v>10.52</v>
       </c>
       <c r="E2" t="n">
-        <v>0.63</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="3">
@@ -488,10 +488,10 @@
         <v>0.82</v>
       </c>
       <c r="D3" t="n">
-        <v>4.61</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>0.87</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="4">
@@ -505,10 +505,10 @@
         <v>0.88</v>
       </c>
       <c r="D4" t="n">
-        <v>6.18</v>
+        <v>10.13</v>
       </c>
       <c r="E4" t="n">
-        <v>1.22</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="5">
@@ -522,10 +522,10 @@
         <v>0.9</v>
       </c>
       <c r="D5" t="n">
-        <v>5.32</v>
+        <v>8.42</v>
       </c>
       <c r="E5" t="n">
-        <v>1.49</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="6">
@@ -539,10 +539,10 @@
         <v>0.91</v>
       </c>
       <c r="D6" t="n">
-        <v>6.34</v>
+        <v>9.66</v>
       </c>
       <c r="E6" t="n">
-        <v>0.91</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="7">
@@ -556,10 +556,10 @@
         <v>0.91</v>
       </c>
       <c r="D7" t="n">
-        <v>6.85</v>
+        <v>10.77</v>
       </c>
       <c r="E7" t="n">
-        <v>2.66</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="8">
@@ -573,10 +573,10 @@
         <v>0.91</v>
       </c>
       <c r="D8" t="n">
-        <v>12.13</v>
+        <v>8.68</v>
       </c>
       <c r="E8" t="n">
-        <v>2.42</v>
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>
